--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akash/Desktop/CSE_5429_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveentr/Desktop/Project @ OSU/CSE_5429_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D433B5A-9FAF-8E4F-A6B3-08216ADB1AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{9D292C5A-59AE-554C-AEC0-C27BE75EFAFF}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Convolution size</t>
-  </si>
-  <si>
-    <t>cpu time</t>
-  </si>
-  <si>
-    <t>gpu time</t>
   </si>
   <si>
     <t>Matrix size</t>
@@ -47,12 +40,24 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>gpu time (Cores 512)</t>
+  </si>
+  <si>
+    <t>gpu time (Cores 256)</t>
+  </si>
+  <si>
+    <t>CPU Time</t>
+  </si>
+  <si>
+    <t>0.000001 ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,13 +65,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,182 +415,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3F69F9-960D-3E41-84A4-C41F142D4200}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.3800000000000003E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.63980800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3193999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.2687039999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1000</v>
       </c>
-      <c r="B2">
-        <f>(A2*A2)</f>
+      <c r="B5">
+        <f>(A5*A5)</f>
         <v>1000000</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E5" s="2">
+        <v>4.5319000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.3835199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1100</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.8469</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.0546880000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1200</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13.935499999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.3614719999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42.857900000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>35.1083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <v>107.1833</v>
+      </c>
+      <c r="F9" s="2">
+        <v>74.452200000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>10000</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">(A3*A3)</f>
+      <c r="B10">
+        <f t="shared" ref="B10:B15" si="0">(A10*A10)</f>
         <v>100000000</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>2030</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E10" s="2">
+        <v>1295.6590000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>885.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>20000</v>
       </c>
-      <c r="B4">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>400000000</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>6840</v>
       </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E11" s="2">
+        <v>7065.1986999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5623.2425999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>30000</v>
       </c>
-      <c r="B5">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>900000000</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>14460</v>
       </c>
-      <c r="E5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E12" s="2">
+        <v>21676.187000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15396.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>40000</v>
       </c>
-      <c r="B6">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>1600000000</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>26120</v>
       </c>
-      <c r="E6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E13" s="2">
+        <v>85198.875</v>
+      </c>
+      <c r="F13" s="2">
+        <v>47684.421799999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>50000</v>
       </c>
-      <c r="B7">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>2500000000</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>41100</v>
       </c>
-      <c r="E7">
+      <c r="E14" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>60000</v>
       </c>
-      <c r="B8">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>3600000000</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>63140</v>
       </c>
-      <c r="E8">
+      <c r="E15" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>100000</v>
       </c>
-      <c r="B9">
-        <f>(A9*A9)</f>
+      <c r="B16" s="1">
+        <f>(A16*A16)</f>
         <v>10000000000</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
         <v>676140</v>
       </c>
-      <c r="E9">
+      <c r="E16" s="1">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveentr/Desktop/Project @ OSU/CSE_5429_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akash/Desktop/CSE_5429_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC5C21-C3AF-8B45-9E5D-50B8CA3E9CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Convolution size</t>
   </si>
@@ -47,16 +50,13 @@
     <t>gpu time (Cores 256)</t>
   </si>
   <si>
-    <t>CPU Time</t>
-  </si>
-  <si>
-    <t>0.000001 ms</t>
+    <t>cpu time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -72,18 +72,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,9 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,16 +448,20 @@
       <c r="A2">
         <v>200</v>
       </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B19" si="0">(A2*A2)</f>
+        <v>40000</v>
+      </c>
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="D2" s="1">
+        <v>1E-3</v>
       </c>
       <c r="E2">
         <v>1.9640000000000001E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.02</v>
       </c>
     </row>
@@ -472,16 +469,20 @@
       <c r="A3">
         <v>500</v>
       </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="1">
         <v>8.3800000000000003E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.63980800000000004</v>
       </c>
     </row>
@@ -489,16 +490,20 @@
       <c r="A4">
         <v>800</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>3.3193999999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4.2687039999999996</v>
       </c>
     </row>
@@ -507,7 +512,7 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <f>(A5*A5)</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="C5">
@@ -516,10 +521,10 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4.5319000000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6.3835199999999999</v>
       </c>
     </row>
@@ -527,16 +532,20 @@
       <c r="A6">
         <v>1100</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1210000</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12.8469</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9.0546880000000005</v>
       </c>
     </row>
@@ -544,16 +553,20 @@
       <c r="A7">
         <v>1200</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>13.935499999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9.3614719999999991</v>
       </c>
     </row>
@@ -561,16 +574,20 @@
       <c r="A8">
         <v>2000</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>42.857900000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>35.1083</v>
       </c>
     </row>
@@ -578,159 +595,562 @@
       <c r="A9">
         <v>3000</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>107.1833</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>74.452200000000005</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B15" si="0">(A10*A10)</f>
-        <v>100000000</v>
+        <f t="shared" si="0"/>
+        <v>16000000</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>2030</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1295.6590000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>885.8</v>
+        <v>108.666666666666</v>
+      </c>
+      <c r="E10">
+        <v>76.903392857142805</v>
+      </c>
+      <c r="F10" s="1">
+        <v>55.517372142857099</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>400000000</v>
+        <v>25000000</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>6840</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7065.1986999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5623.2425999999996</v>
+        <v>126.380952380952</v>
+      </c>
+      <c r="E11" s="1">
+        <v>88.862399047619306</v>
+      </c>
+      <c r="F11" s="1">
+        <v>63.9854356190476</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>900000000</v>
+        <v>36000000</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>14460</v>
-      </c>
-      <c r="E12" s="2">
-        <v>21676.187000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15396.125</v>
+        <v>144.09523809523799</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100.821405238095</v>
+      </c>
+      <c r="F12" s="1">
+        <v>72.453499095238101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>7000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>49000000</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>161.809523809523</v>
+      </c>
+      <c r="E13" s="1">
+        <v>112.780411428571</v>
+      </c>
+      <c r="F13" s="1">
+        <v>80.921562571428595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>64000000</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>179.52380952380901</v>
+      </c>
+      <c r="E14" s="1">
+        <v>124.739417619047</v>
+      </c>
+      <c r="F14" s="1">
+        <v>89.389626047619302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>81000000</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>197.23809523809501</v>
+      </c>
+      <c r="E15" s="1">
+        <v>136.698423809524</v>
+      </c>
+      <c r="F15" s="1">
+        <v>97.857689523809299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1460</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1295.6590000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>885.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>6840</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7065.1986999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5623.2425999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>900000000</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>14460</v>
+      </c>
+      <c r="E18" s="1">
+        <v>21676.187000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15396.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>40000</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>1600000000</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>26120</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E19" s="1">
         <v>85198.875</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F19" s="1">
         <v>47684.421799999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>2500000000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>41100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>60000</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>3600000000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>63140</v>
-      </c>
-      <c r="E15" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B16" s="1">
-        <f>(A16*A16)</f>
-        <v>10000000000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>676140</v>
-      </c>
-      <c r="E16" s="1">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB284202-278A-1F46-AE3A-F7DC77DB1F40}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B5" si="0">(A2*A2)</f>
+        <v>100000000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1460</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1295.6590000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>885.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>6840</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7065.1986999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5623.2425999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>900000000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>14460</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21676.187000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15396.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1600000000</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>26120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>85198.875</v>
+      </c>
+      <c r="F5" s="1">
+        <v>47684.421799999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452260A8-7DC6-3B4E-AE5B-0C5C539717E7}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B19" si="0">(A2*A2)</f>
+        <v>40000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.3800000000000003E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.63980800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>800</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.3193999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.2687039999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.5319000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.3835199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1100</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1210000</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.8469</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.0546880000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1200</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13.935499999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.3614719999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>